--- a/documents/SSCI_AnnualMtg - 20251118 - v2.xlsx
+++ b/documents/SSCI_AnnualMtg - 20251118 - v2.xlsx
@@ -204,7 +204,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Session chair: Youhi Morii</t>
+    <t xml:space="preserve">Session chair: Yichen Zong</t>
   </si>
   <si>
     <t xml:space="preserve">11:10-11:30</t>
@@ -443,7 +443,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Session chair: Boon Siong Neo</t>
+    <t xml:space="preserve">Session chair: Youhi Morii</t>
   </si>
   <si>
     <t xml:space="preserve">16:10-16:30</t>
@@ -528,7 +528,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -574,6 +574,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -649,7 +656,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -699,6 +706,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -789,15 +800,15 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="137.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.01"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="9"/>
   </cols>
   <sheetData>
@@ -967,7 +978,7 @@
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -978,7 +989,7 @@
       <c r="B19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
@@ -987,13 +998,13 @@
       <c r="B20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -1004,14 +1015,14 @@
       <c r="A22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="5"/>

--- a/documents/SSCI_AnnualMtg - 20251118 - v2.xlsx
+++ b/documents/SSCI_AnnualMtg - 20251118 - v2.xlsx
@@ -247,6 +247,186 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">Prof. He Qian</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Department of Materials Science and Engineering, College of Design and Engineering, NUS)
+High-temperature catalytic ammonia combustion via single atom catalysts</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">11:50-12:10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dr. Jim Rogerson</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (New Technologies, Siemens Energy)
+Research partnerships for the decarbonization of gas turbines</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">12:10-13:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch &amp; poster session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:40-14:10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Prof. Christine Rousselle </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Université d’Orléans)
+Liquid ammonia spray: Specificities and challenges</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Session chair: Tat Loon Chng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:10-14:40</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dr. Chang Wei Kang</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Computational Sustainability, Institute of High Performance Computing, A*STAR)
+Accelerating low-carbon transition through AI-driven catalyst and reactor modelling</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">14:40-15:10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Prof. Wenming Yang</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Department of Mechanical Engineering, College of Design and Engineering, NUS)
+Development of the next generation ammonia marine engine with high efficiency and extremely low emission</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">15:10-15:30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Prof. Youhi Morii</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Institute of Fluid Science, Tohoku University, Japan)
+Analytical evidence for the existence of stable weak detonation based on supersonic autoignitive reaction wave concept interpreted through rayleigh flow</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">15:30-15:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:50-16:10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Dr. Peng Ma</t>
     </r>
     <r>
@@ -260,186 +440,6 @@
       </rPr>
       <t xml:space="preserve"> (Department of Mechanical Engineering, College of Design and Engineering, NUS)
 Impact of blockage ratio on the stability and emissions of premixed partially cracked ammonia swirl flames</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">11:50-12:10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Dr. Jim Rogerson</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (New Technologies, Siemens Energy)
-Research partnerships for the decarbonization of gas turbines</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">12:10-13:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunch &amp; poster session</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:40-14:10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Prof. Christine Rousselle </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Université d’Orléans)
-Liquid ammonia spray: Specificities and challenges</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Session chair: Tat Loon Chng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:10-14:40</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Dr. Chang Wei Kang</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (Computational Sustainability, Institute of High Performance Computing, A*STAR)
-Accelerating low-carbon transition through AI-driven catalyst and reactor modelling</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">14:40-15:10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Prof. Wenming Yang</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (Department of Mechanical Engineering, College of Design and Engineering, NUS)
-Development of the next generation ammonia marine engine with high efficiency and extremely low emission</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">15:10-15:30</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Prof. Youhi Morii</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (Institute of Fluid Science, Tohoku University, Japan)
-Analytical evidence for the existence of stable weak detonation based on supersonic autoignitive reaction wave concept interpreted through rayleigh flow</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">15:30-15:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:50-16:10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Prof. He Qian</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (Department of Materials Science and Engineering, College of Design and Engineering, NUS)
-High-temperature catalytic ammonia combustion via single atom catalysts</t>
     </r>
   </si>
   <si>
@@ -528,7 +528,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -574,13 +574,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -656,7 +649,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -706,10 +699,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -798,10 +787,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -978,7 +967,7 @@
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -989,7 +978,7 @@
       <c r="B19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
@@ -998,13 +987,13 @@
       <c r="B20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -1015,17 +1004,20 @@
       <c r="A22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
